--- a/po_analysis_by_asin/B09JZHM23R_po_data.xlsx
+++ b/po_analysis_by_asin/B09JZHM23R_po_data.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -538,30 +538,6 @@
         <v>16</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>45116.99999999999</v>
-      </c>
-      <c r="B13" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>45123.99999999999</v>
-      </c>
-      <c r="B14" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>45130.99999999999</v>
-      </c>
-      <c r="B15" t="n">
-        <v>16</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -573,7 +549,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -641,14 +617,6 @@
         <v>48</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>45138.99999999999</v>
-      </c>
-      <c r="B8" t="n">
-        <v>32</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/po_analysis_by_asin/B09JZHM23R_po_data.xlsx
+++ b/po_analysis_by_asin/B09JZHM23R_po_data.xlsx
@@ -9,6 +9,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Weekly Quantity" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Monthly Trend" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PO Forecast" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -446,7 +447,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Requested quantity</t>
+          <t>Weekly_PO_Qty</t>
         </is>
       </c>
     </row>
@@ -565,7 +566,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Requested quantity</t>
+          <t>Monthly_PO_Qty</t>
         </is>
       </c>
     </row>
@@ -615,6 +616,313 @@
       </c>
       <c r="B7" t="n">
         <v>48</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ds</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>PO_Forecast</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>yhat_lower</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>yhat_upper</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>44948.99999999999</v>
+      </c>
+      <c r="B2" t="n">
+        <v>11</v>
+      </c>
+      <c r="C2" t="n">
+        <v>2.571175959653114</v>
+      </c>
+      <c r="D2" t="n">
+        <v>19.19788143352253</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>44955.99999999999</v>
+      </c>
+      <c r="B3" t="n">
+        <v>11</v>
+      </c>
+      <c r="C3" t="n">
+        <v>3.063885435119403</v>
+      </c>
+      <c r="D3" t="n">
+        <v>19.22946709276879</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>44962.99999999999</v>
+      </c>
+      <c r="B4" t="n">
+        <v>11</v>
+      </c>
+      <c r="C4" t="n">
+        <v>3.266379212234483</v>
+      </c>
+      <c r="D4" t="n">
+        <v>18.87575145318853</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>44983.99999999999</v>
+      </c>
+      <c r="B5" t="n">
+        <v>11</v>
+      </c>
+      <c r="C5" t="n">
+        <v>2.663898564489628</v>
+      </c>
+      <c r="D5" t="n">
+        <v>18.56553673924199</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>44990.99999999999</v>
+      </c>
+      <c r="B6" t="n">
+        <v>11</v>
+      </c>
+      <c r="C6" t="n">
+        <v>2.961265168892732</v>
+      </c>
+      <c r="D6" t="n">
+        <v>18.94044119077631</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>45025.99999999999</v>
+      </c>
+      <c r="B7" t="n">
+        <v>12</v>
+      </c>
+      <c r="C7" t="n">
+        <v>3.825520547896382</v>
+      </c>
+      <c r="D7" t="n">
+        <v>19.48108610005115</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>45053.99999999999</v>
+      </c>
+      <c r="B8" t="n">
+        <v>12</v>
+      </c>
+      <c r="C8" t="n">
+        <v>3.992139428554501</v>
+      </c>
+      <c r="D8" t="n">
+        <v>19.79802279937447</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>45074.99999999999</v>
+      </c>
+      <c r="B9" t="n">
+        <v>12</v>
+      </c>
+      <c r="C9" t="n">
+        <v>4.635290970560285</v>
+      </c>
+      <c r="D9" t="n">
+        <v>20.07130286149998</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>45088.99999999999</v>
+      </c>
+      <c r="B10" t="n">
+        <v>13</v>
+      </c>
+      <c r="C10" t="n">
+        <v>4.829850550088094</v>
+      </c>
+      <c r="D10" t="n">
+        <v>20.23088180400762</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>45095.99999999999</v>
+      </c>
+      <c r="B11" t="n">
+        <v>13</v>
+      </c>
+      <c r="C11" t="n">
+        <v>4.504873198166251</v>
+      </c>
+      <c r="D11" t="n">
+        <v>20.54734226975554</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45102.99999999999</v>
+      </c>
+      <c r="B12" t="n">
+        <v>13</v>
+      </c>
+      <c r="C12" t="n">
+        <v>4.968336072421883</v>
+      </c>
+      <c r="D12" t="n">
+        <v>20.63181142853068</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>45109.99999999999</v>
+      </c>
+      <c r="B13" t="n">
+        <v>13</v>
+      </c>
+      <c r="C13" t="n">
+        <v>4.926694683586494</v>
+      </c>
+      <c r="D13" t="n">
+        <v>20.20053958785995</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>45116.99999999999</v>
+      </c>
+      <c r="B14" t="n">
+        <v>13</v>
+      </c>
+      <c r="C14" t="n">
+        <v>5.250084115514971</v>
+      </c>
+      <c r="D14" t="n">
+        <v>20.60501053306235</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>45123.99999999999</v>
+      </c>
+      <c r="B15" t="n">
+        <v>13</v>
+      </c>
+      <c r="C15" t="n">
+        <v>5.105349949577461</v>
+      </c>
+      <c r="D15" t="n">
+        <v>21.12255772826849</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>45130.99999999999</v>
+      </c>
+      <c r="B16" t="n">
+        <v>13</v>
+      </c>
+      <c r="C16" t="n">
+        <v>4.796681876311222</v>
+      </c>
+      <c r="D16" t="n">
+        <v>21.08436836865985</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>45137.99999999999</v>
+      </c>
+      <c r="B17" t="n">
+        <v>13</v>
+      </c>
+      <c r="C17" t="n">
+        <v>5.783794630916547</v>
+      </c>
+      <c r="D17" t="n">
+        <v>21.32321548069335</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>45144.99999999999</v>
+      </c>
+      <c r="B18" t="n">
+        <v>13</v>
+      </c>
+      <c r="C18" t="n">
+        <v>5.213239605011161</v>
+      </c>
+      <c r="D18" t="n">
+        <v>20.68958192924975</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>45151.99999999999</v>
+      </c>
+      <c r="B19" t="n">
+        <v>13</v>
+      </c>
+      <c r="C19" t="n">
+        <v>5.686617005750166</v>
+      </c>
+      <c r="D19" t="n">
+        <v>21.49879352589383</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>45158.99999999999</v>
+      </c>
+      <c r="B20" t="n">
+        <v>14</v>
+      </c>
+      <c r="C20" t="n">
+        <v>5.315603455766324</v>
+      </c>
+      <c r="D20" t="n">
+        <v>21.62103766796849</v>
       </c>
     </row>
   </sheetData>

--- a/po_analysis_by_asin/B09JZHM23R_po_data.xlsx
+++ b/po_analysis_by_asin/B09JZHM23R_po_data.xlsx
@@ -629,7 +629,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D20"/>
+  <dimension ref="A1:B20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -648,16 +648,6 @@
           <t>PO_Forecast</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>yhat_lower</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>yhat_upper</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
@@ -666,12 +656,6 @@
       <c r="B2" t="n">
         <v>11</v>
       </c>
-      <c r="C2" t="n">
-        <v>2.571175959653114</v>
-      </c>
-      <c r="D2" t="n">
-        <v>19.19788143352253</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
@@ -680,12 +664,6 @@
       <c r="B3" t="n">
         <v>11</v>
       </c>
-      <c r="C3" t="n">
-        <v>3.063885435119403</v>
-      </c>
-      <c r="D3" t="n">
-        <v>19.22946709276879</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
@@ -694,12 +672,6 @@
       <c r="B4" t="n">
         <v>11</v>
       </c>
-      <c r="C4" t="n">
-        <v>3.266379212234483</v>
-      </c>
-      <c r="D4" t="n">
-        <v>18.87575145318853</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
@@ -708,12 +680,6 @@
       <c r="B5" t="n">
         <v>11</v>
       </c>
-      <c r="C5" t="n">
-        <v>2.663898564489628</v>
-      </c>
-      <c r="D5" t="n">
-        <v>18.56553673924199</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -722,12 +688,6 @@
       <c r="B6" t="n">
         <v>11</v>
       </c>
-      <c r="C6" t="n">
-        <v>2.961265168892732</v>
-      </c>
-      <c r="D6" t="n">
-        <v>18.94044119077631</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
@@ -736,12 +696,6 @@
       <c r="B7" t="n">
         <v>12</v>
       </c>
-      <c r="C7" t="n">
-        <v>3.825520547896382</v>
-      </c>
-      <c r="D7" t="n">
-        <v>19.48108610005115</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -750,12 +704,6 @@
       <c r="B8" t="n">
         <v>12</v>
       </c>
-      <c r="C8" t="n">
-        <v>3.992139428554501</v>
-      </c>
-      <c r="D8" t="n">
-        <v>19.79802279937447</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
@@ -764,12 +712,6 @@
       <c r="B9" t="n">
         <v>12</v>
       </c>
-      <c r="C9" t="n">
-        <v>4.635290970560285</v>
-      </c>
-      <c r="D9" t="n">
-        <v>20.07130286149998</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
@@ -778,12 +720,6 @@
       <c r="B10" t="n">
         <v>13</v>
       </c>
-      <c r="C10" t="n">
-        <v>4.829850550088094</v>
-      </c>
-      <c r="D10" t="n">
-        <v>20.23088180400762</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
@@ -792,12 +728,6 @@
       <c r="B11" t="n">
         <v>13</v>
       </c>
-      <c r="C11" t="n">
-        <v>4.504873198166251</v>
-      </c>
-      <c r="D11" t="n">
-        <v>20.54734226975554</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
@@ -806,12 +736,6 @@
       <c r="B12" t="n">
         <v>13</v>
       </c>
-      <c r="C12" t="n">
-        <v>4.968336072421883</v>
-      </c>
-      <c r="D12" t="n">
-        <v>20.63181142853068</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
@@ -820,12 +744,6 @@
       <c r="B13" t="n">
         <v>13</v>
       </c>
-      <c r="C13" t="n">
-        <v>4.926694683586494</v>
-      </c>
-      <c r="D13" t="n">
-        <v>20.20053958785995</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
@@ -834,12 +752,6 @@
       <c r="B14" t="n">
         <v>13</v>
       </c>
-      <c r="C14" t="n">
-        <v>5.250084115514971</v>
-      </c>
-      <c r="D14" t="n">
-        <v>20.60501053306235</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
@@ -848,12 +760,6 @@
       <c r="B15" t="n">
         <v>13</v>
       </c>
-      <c r="C15" t="n">
-        <v>5.105349949577461</v>
-      </c>
-      <c r="D15" t="n">
-        <v>21.12255772826849</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
@@ -862,12 +768,6 @@
       <c r="B16" t="n">
         <v>13</v>
       </c>
-      <c r="C16" t="n">
-        <v>4.796681876311222</v>
-      </c>
-      <c r="D16" t="n">
-        <v>21.08436836865985</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
@@ -876,12 +776,6 @@
       <c r="B17" t="n">
         <v>13</v>
       </c>
-      <c r="C17" t="n">
-        <v>5.783794630916547</v>
-      </c>
-      <c r="D17" t="n">
-        <v>21.32321548069335</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
@@ -890,12 +784,6 @@
       <c r="B18" t="n">
         <v>13</v>
       </c>
-      <c r="C18" t="n">
-        <v>5.213239605011161</v>
-      </c>
-      <c r="D18" t="n">
-        <v>20.68958192924975</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
@@ -904,12 +792,6 @@
       <c r="B19" t="n">
         <v>13</v>
       </c>
-      <c r="C19" t="n">
-        <v>5.686617005750166</v>
-      </c>
-      <c r="D19" t="n">
-        <v>21.49879352589383</v>
-      </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
@@ -917,12 +799,6 @@
       </c>
       <c r="B20" t="n">
         <v>14</v>
-      </c>
-      <c r="C20" t="n">
-        <v>5.315603455766324</v>
-      </c>
-      <c r="D20" t="n">
-        <v>21.62103766796849</v>
       </c>
     </row>
   </sheetData>
